--- a/IDP-Performance-Review-FR_00-051.xlsx
+++ b/IDP-Performance-Review-FR_00-051.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Travail\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Programmation\Projets C#\Mon Projet\VersionBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24570" windowHeight="9405" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24576" windowHeight="9408" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Entete" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Ordre de Mission" sheetId="11" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Analyse!$A$1:$D$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Analyse!$A$1:$D$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Entete!$A:$F</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Ordre de Mission'!$A$1:$L$36</definedName>
   </definedNames>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="116">
   <si>
     <t>Auteur(s)</t>
   </si>
@@ -611,6 +611,39 @@
   </si>
   <si>
     <t>L'acquisiton de la maîtrise de DevBooster, dûe d'une part aux différentes missions de Migration (pour acquérir des bases solides), et d'autre part à la mission avec Marceau THALGOTT, qui a montré et réalisé le potentiel d'amélioration possible au sein du Framework, ce dont j'ai beaucoup appris.</t>
+  </si>
+  <si>
+    <t>Augmentation de salaire à 37000 euros</t>
+  </si>
+  <si>
+    <t>Début 2018</t>
+  </si>
+  <si>
+    <t>1er trimestre 2018</t>
+  </si>
+  <si>
+    <t>Réalisation d'une application de cartographie et gestion de territoire dans un cadre de jeu de rôle (C# , XAML sans Framework, BDD à suivre, …)</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Aucune autre réussite notable - il y a eu des réussites mineures, mais elles font partie intégrante du fonctionnement et du travail en CDS, et ne sortent pas de l'ordinaire.</t>
+  </si>
+  <si>
+    <t>Aucun autre échec notable - il y a eu des échecs mineurs, mais ils font partie intégrante du fonctionnement et du travail en CDS et ne sortent pas de l'ordinaire</t>
+  </si>
+  <si>
+    <t>Devenir chef de projet technique sur les projets où ma connaissance fonctionnelle est suffisante.</t>
+  </si>
+  <si>
+    <t>Trop peu d'expérience dans la gestion technique entière d'un projet d'envergure moyenne.</t>
+  </si>
+  <si>
+    <t>Bon degré de connaissance technique, bon contact avec les équipes internes et les autres consultants Actimage, ai été plusieurs fois force de proposition dans des projets où la partie technique n'était pas clairement définie.</t>
+  </si>
+  <si>
+    <t>Suivre la partie gestion technique de projets d'envergure moyenne au côté d'un chef de projet technique référent.</t>
   </si>
 </sst>
 </file>
@@ -1182,16 +1215,22 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1249,9 +1288,45 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1266,48 +1341,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1347,7 +1380,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1395,7 +1428,7 @@
         <xdr:cNvPr id="3" name="Image 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1644,84 +1677,84 @@
       <selection activeCell="D17" sqref="D17:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.25" style="1"/>
+    <col min="1" max="1" width="8.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.09765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.69921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.09765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.69921875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="7.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="13"/>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="59"/>
+      <c r="C3" s="60"/>
       <c r="D3" s="14"/>
     </row>
-    <row r="4" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="15"/>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="60"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="16"/>
     </row>
-    <row r="5" spans="1:5" ht="160.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-    </row>
-    <row r="6" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="67" t="s">
+    <row r="5" spans="1:5" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+    </row>
+    <row r="6" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="68"/>
-    </row>
-    <row r="7" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="69" t="s">
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="70"/>
+    </row>
+    <row r="7" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="70"/>
-    </row>
-    <row r="8" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="72"/>
+    </row>
+    <row r="8" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="98">
+      <c r="C9" s="62">
         <v>43105</v>
       </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-    </row>
-    <row r="11" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+    </row>
+    <row r="11" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
@@ -1731,7 +1764,7 @@
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>22</v>
       </c>
@@ -1745,7 +1778,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B13" s="10" t="s">
         <v>23</v>
       </c>
@@ -1759,15 +1792,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="99" t="s">
+      <c r="C14" s="59" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>25</v>
       </c>
@@ -1775,7 +1808,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="5" t="s">
         <v>26</v>
       </c>
@@ -1785,17 +1818,17 @@
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="63"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="64"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="65"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="66"/>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B17" s="65"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="66"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B18" s="67"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1827,93 +1860,93 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.75" style="1" customWidth="1"/>
-    <col min="2" max="3" width="31.75" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.25" style="1"/>
+    <col min="1" max="1" width="22.69921875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="31.69921875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="31.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="73"/>
-    </row>
-    <row r="3" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="75"/>
+    </row>
+    <row r="3" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="73"/>
-    </row>
-    <row r="5" spans="1:3" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="75"/>
+    </row>
+    <row r="5" spans="1:3" ht="31.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+    <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="74"/>
-    </row>
-    <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="72"/>
-      <c r="B7" s="74" t="s">
+      <c r="C6" s="76"/>
+    </row>
+    <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="74"/>
+      <c r="B7" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="74"/>
-    </row>
-    <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="72"/>
-      <c r="B8" s="75" t="s">
+      <c r="C7" s="76"/>
+    </row>
+    <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="74"/>
+      <c r="B8" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="75"/>
-    </row>
-    <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="72" t="s">
+      <c r="C8" s="77"/>
+    </row>
+    <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="74"/>
-    </row>
-    <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="72"/>
-      <c r="B10" s="74" t="s">
+      <c r="C9" s="76"/>
+    </row>
+    <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="74"/>
+      <c r="B10" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="74"/>
-    </row>
-    <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="72"/>
-      <c r="B11" s="74" t="s">
+      <c r="C10" s="76"/>
+    </row>
+    <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="74"/>
+      <c r="B11" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="74"/>
-    </row>
-    <row r="13" spans="1:3" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="76"/>
+    </row>
+    <row r="13" spans="1:3" ht="31.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>4</v>
       </c>
@@ -1924,7 +1957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8" t="s">
         <v>31</v>
       </c>
@@ -1935,7 +1968,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
         <v>78</v>
       </c>
@@ -1946,7 +1979,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="10" t="s">
         <v>80</v>
       </c>
@@ -1957,7 +1990,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="10" t="s">
         <v>83</v>
       </c>
@@ -1968,7 +2001,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="10" t="s">
         <v>86</v>
       </c>
@@ -2013,26 +2046,24 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.125" customWidth="1"/>
-    <col min="2" max="4" width="35.875" customWidth="1"/>
+    <col min="1" max="1" width="15.09765625" customWidth="1"/>
+    <col min="2" max="4" width="35.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="43" t="s">
         <v>88</v>
       </c>
@@ -2040,8 +2071,8 @@
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="80" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="40" t="s">
@@ -2050,16 +2081,16 @@
       <c r="C3" s="41"/>
       <c r="D3" s="42"/>
     </row>
-    <row r="4" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="79"/>
+    <row r="4" spans="1:4" ht="33.6" x14ac:dyDescent="0.4">
+      <c r="A4" s="81"/>
       <c r="B4" s="19" t="s">
         <v>102</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="76" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="78" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="44" t="s">
@@ -2068,32 +2099,32 @@
       <c r="C5" s="43"/>
       <c r="D5" s="43"/>
     </row>
-    <row r="6" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="77"/>
+    <row r="6" spans="1:4" ht="33.6" x14ac:dyDescent="0.4">
+      <c r="A6" s="79"/>
       <c r="B6" s="23" t="s">
         <v>103</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
     </row>
-    <row r="7" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="77"/>
+    <row r="7" spans="1:4" ht="50.4" x14ac:dyDescent="0.4">
+      <c r="A7" s="79"/>
       <c r="B7" s="23" t="s">
         <v>104</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="77"/>
+    <row r="8" spans="1:4" ht="33.6" x14ac:dyDescent="0.4">
+      <c r="A8" s="79"/>
       <c r="B8" s="23" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="76" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="78" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="44" t="s">
@@ -2102,32 +2133,32 @@
       <c r="C9" s="43"/>
       <c r="D9" s="43"/>
     </row>
-    <row r="10" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="77"/>
+    <row r="10" spans="1:4" ht="50.4" x14ac:dyDescent="0.4">
+      <c r="A10" s="79"/>
       <c r="B10" s="22" t="s">
         <v>101</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="77"/>
+    <row r="11" spans="1:4" ht="33.6" x14ac:dyDescent="0.4">
+      <c r="A11" s="79"/>
       <c r="B11" s="23" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="77"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="79"/>
       <c r="B12" s="23" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="76" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="78" t="s">
         <v>45</v>
       </c>
       <c r="B13" s="43" t="s">
@@ -2136,8 +2167,8 @@
       <c r="C13" s="43"/>
       <c r="D13" s="43"/>
     </row>
-    <row r="14" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14" s="77"/>
+    <row r="14" spans="1:4" ht="33.6" x14ac:dyDescent="0.4">
+      <c r="A14" s="79"/>
       <c r="B14" s="18" t="s">
         <v>42</v>
       </c>
@@ -2146,8 +2177,8 @@
       </c>
       <c r="D14" s="23"/>
     </row>
-    <row r="15" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" s="77"/>
+    <row r="15" spans="1:4" ht="33.6" x14ac:dyDescent="0.4">
+      <c r="A15" s="79"/>
       <c r="B15" s="18" t="s">
         <v>43</v>
       </c>
@@ -2156,8 +2187,8 @@
       </c>
       <c r="D15" s="23"/>
     </row>
-    <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A16" s="77"/>
+    <row r="16" spans="1:4" ht="33.6" x14ac:dyDescent="0.4">
+      <c r="A16" s="79"/>
       <c r="B16" s="18" t="s">
         <v>44</v>
       </c>
@@ -2166,8 +2197,8 @@
       </c>
       <c r="D16" s="23"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="76" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="78" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="43" t="s">
@@ -2176,8 +2207,8 @@
       <c r="C17" s="43"/>
       <c r="D17" s="43"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="77"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="79"/>
       <c r="B18" s="18" t="s">
         <v>46</v>
       </c>
@@ -2186,8 +2217,8 @@
       </c>
       <c r="D18" s="23"/>
     </row>
-    <row r="19" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A19" s="77"/>
+    <row r="19" spans="1:4" ht="33.6" x14ac:dyDescent="0.4">
+      <c r="A19" s="79"/>
       <c r="B19" s="18" t="s">
         <v>47</v>
       </c>
@@ -2196,14 +2227,14 @@
       </c>
       <c r="D19" s="23"/>
     </row>
-    <row r="21" spans="1:4" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="43" t="s">
         <v>91</v>
       </c>
@@ -2211,7 +2242,7 @@
       <c r="C22" s="43"/>
       <c r="D22" s="43"/>
     </row>
-    <row r="23" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
         <v>50</v>
       </c>
@@ -2221,130 +2252,76 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="22" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
       <c r="D24" s="25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="22" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
-      <c r="D25" s="25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="24" t="s">
+      <c r="D25" s="25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="45"/>
+      <c r="B27" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A28" s="45"/>
-      <c r="B28" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="45"/>
-      <c r="B29" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="45"/>
-      <c r="B30" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>34</v>
-      </c>
+      <c r="B28" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="33.6" x14ac:dyDescent="0.4">
+      <c r="A29" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="33.6" x14ac:dyDescent="0.4">
+      <c r="A30" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="45"/>
-      <c r="B31" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A32" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="25" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2379,39 +2356,39 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="3.75" customWidth="1"/>
+    <col min="3" max="3" width="3.69921875" customWidth="1"/>
     <col min="4" max="4" width="50" customWidth="1"/>
     <col min="5" max="10" width="12.5" customWidth="1"/>
-    <col min="11" max="12" width="18.75" customWidth="1"/>
+    <col min="11" max="12" width="18.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:12" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A1" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="81" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-    </row>
-    <row r="2" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="82" t="s">
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+    </row>
+    <row r="2" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="84"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="98"/>
       <c r="D2" s="27" t="s">
         <v>59</v>
       </c>
@@ -2426,10 +2403,10 @@
       <c r="K2" s="54"/>
       <c r="L2" s="54"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="86"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="84"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="98"/>
       <c r="D3" s="29" t="s">
         <v>60</v>
       </c>
@@ -2444,10 +2421,10 @@
       <c r="K3" s="57"/>
       <c r="L3" s="57"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="88"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="84"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" s="90"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="98"/>
       <c r="D4" s="29" t="s">
         <v>61</v>
       </c>
@@ -2465,12 +2442,12 @@
       <c r="K4" s="57"/>
       <c r="L4" s="57"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="92" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="84"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="98"/>
       <c r="D5" s="29" t="s">
         <v>63</v>
       </c>
@@ -2487,10 +2464,10 @@
       <c r="K5" s="57"/>
       <c r="L5" s="57"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="86"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="84"/>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A6" s="88"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="98"/>
       <c r="D6" s="29" t="s">
         <v>65</v>
       </c>
@@ -2505,10 +2482,10 @@
       <c r="K6" s="57"/>
       <c r="L6" s="57"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="88"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="85"/>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7" s="90"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="99"/>
       <c r="D7" s="33" t="s">
         <v>66</v>
       </c>
@@ -2523,7 +2500,7 @@
       <c r="K7" s="57"/>
       <c r="L7" s="57"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="D8" s="34"/>
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
@@ -2532,38 +2509,38 @@
       <c r="I8" s="35"/>
       <c r="J8" s="35"/>
     </row>
-    <row r="9" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="80" t="s">
+    <row r="9" spans="1:12" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A9" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
       <c r="F9" s="36"/>
       <c r="G9" s="36"/>
       <c r="H9" s="36"/>
       <c r="I9" s="36"/>
       <c r="J9" s="36"/>
     </row>
-    <row r="10" spans="1:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="94"/>
+      <c r="C10" s="93"/>
       <c r="D10" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="95" t="s">
+      <c r="E10" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="94"/>
       <c r="J10" s="38" t="s">
         <v>71</v>
       </c>
@@ -2574,8 +2551,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="90"/>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A11" s="85"/>
       <c r="B11" s="46"/>
       <c r="C11" s="46"/>
       <c r="D11" s="39"/>
@@ -2588,8 +2565,8 @@
       <c r="K11" s="39"/>
       <c r="L11" s="39"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="91"/>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A12" s="82"/>
       <c r="B12" s="47"/>
       <c r="C12" s="47"/>
       <c r="D12" s="37"/>
@@ -2602,8 +2579,8 @@
       <c r="K12" s="37"/>
       <c r="L12" s="37"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="91"/>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A13" s="82"/>
       <c r="B13" s="47"/>
       <c r="C13" s="47"/>
       <c r="D13" s="37"/>
@@ -2616,8 +2593,8 @@
       <c r="K13" s="37"/>
       <c r="L13" s="37"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="91"/>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A14" s="82"/>
       <c r="B14" s="47"/>
       <c r="C14" s="47"/>
       <c r="D14" s="37"/>
@@ -2630,8 +2607,8 @@
       <c r="K14" s="37"/>
       <c r="L14" s="37"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="91"/>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A15" s="82"/>
       <c r="B15" s="47"/>
       <c r="C15" s="47"/>
       <c r="D15" s="37"/>
@@ -2644,8 +2621,8 @@
       <c r="K15" s="37"/>
       <c r="L15" s="37"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="91"/>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A16" s="82"/>
       <c r="B16" s="47"/>
       <c r="C16" s="47"/>
       <c r="D16" s="37"/>
@@ -2658,8 +2635,8 @@
       <c r="K16" s="37"/>
       <c r="L16" s="37"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="91"/>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A17" s="82"/>
       <c r="B17" s="47"/>
       <c r="C17" s="47"/>
       <c r="D17" s="37"/>
@@ -2672,8 +2649,8 @@
       <c r="K17" s="37"/>
       <c r="L17" s="37"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="91"/>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A18" s="82"/>
       <c r="B18" s="47"/>
       <c r="C18" s="47"/>
       <c r="D18" s="37"/>
@@ -2686,8 +2663,8 @@
       <c r="K18" s="37"/>
       <c r="L18" s="37"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="91"/>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A19" s="82"/>
       <c r="B19" s="47"/>
       <c r="C19" s="47"/>
       <c r="D19" s="37"/>
@@ -2700,8 +2677,8 @@
       <c r="K19" s="37"/>
       <c r="L19" s="37"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="91"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A20" s="82"/>
       <c r="B20" s="47"/>
       <c r="C20" s="47"/>
       <c r="D20" s="37"/>
@@ -2714,8 +2691,8 @@
       <c r="K20" s="37"/>
       <c r="L20" s="37"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="91"/>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A21" s="82"/>
       <c r="B21" s="47"/>
       <c r="C21" s="47"/>
       <c r="D21" s="37"/>
@@ -2728,8 +2705,8 @@
       <c r="K21" s="37"/>
       <c r="L21" s="37"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="96"/>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A22" s="83"/>
       <c r="B22" s="47"/>
       <c r="C22" s="47"/>
       <c r="D22" s="37"/>
@@ -2742,8 +2719,8 @@
       <c r="K22" s="37"/>
       <c r="L22" s="37"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="96"/>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A23" s="83"/>
       <c r="B23" s="47"/>
       <c r="C23" s="47"/>
       <c r="D23" s="37"/>
@@ -2756,8 +2733,8 @@
       <c r="K23" s="37"/>
       <c r="L23" s="37"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="96"/>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A24" s="83"/>
       <c r="B24" s="47"/>
       <c r="C24" s="47"/>
       <c r="D24" s="37"/>
@@ -2770,8 +2747,8 @@
       <c r="K24" s="37"/>
       <c r="L24" s="37"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="91"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A25" s="82"/>
       <c r="B25" s="47"/>
       <c r="C25" s="47"/>
       <c r="D25" s="37"/>
@@ -2784,8 +2761,8 @@
       <c r="K25" s="37"/>
       <c r="L25" s="37"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="91"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A26" s="82"/>
       <c r="B26" s="47"/>
       <c r="C26" s="47"/>
       <c r="D26" s="37"/>
@@ -2798,8 +2775,8 @@
       <c r="K26" s="37"/>
       <c r="L26" s="37"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="91"/>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A27" s="82"/>
       <c r="B27" s="47"/>
       <c r="C27" s="47"/>
       <c r="D27" s="37"/>
@@ -2812,8 +2789,8 @@
       <c r="K27" s="37"/>
       <c r="L27" s="37"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="91"/>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A28" s="82"/>
       <c r="B28" s="47"/>
       <c r="C28" s="47"/>
       <c r="D28" s="37"/>
@@ -2826,8 +2803,8 @@
       <c r="K28" s="37"/>
       <c r="L28" s="37"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="91"/>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A29" s="82"/>
       <c r="B29" s="47"/>
       <c r="C29" s="47"/>
       <c r="D29" s="37"/>
@@ -2840,8 +2817,8 @@
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="91"/>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A30" s="82"/>
       <c r="B30" s="47"/>
       <c r="C30" s="47"/>
       <c r="D30" s="37"/>
@@ -2854,8 +2831,8 @@
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="91"/>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A31" s="82"/>
       <c r="B31" s="47"/>
       <c r="C31" s="47"/>
       <c r="D31" s="37"/>
@@ -2868,8 +2845,8 @@
       <c r="K31" s="37"/>
       <c r="L31" s="37"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="91"/>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A32" s="82"/>
       <c r="B32" s="47"/>
       <c r="C32" s="47"/>
       <c r="D32" s="37"/>
@@ -2882,8 +2859,8 @@
       <c r="K32" s="37"/>
       <c r="L32" s="37"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="91"/>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A33" s="82"/>
       <c r="B33" s="47"/>
       <c r="C33" s="47"/>
       <c r="D33" s="37"/>
@@ -2896,8 +2873,8 @@
       <c r="K33" s="37"/>
       <c r="L33" s="37"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="91"/>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A34" s="82"/>
       <c r="B34" s="48"/>
       <c r="C34" s="49"/>
       <c r="D34" s="37"/>
@@ -2910,8 +2887,8 @@
       <c r="K34" s="37"/>
       <c r="L34" s="37"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="97"/>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A35" s="84"/>
       <c r="B35" s="50"/>
       <c r="C35" s="50"/>
       <c r="D35" s="37"/>
@@ -2926,21 +2903,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:I10"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="A25:A30"/>
     <mergeCell ref="A31:A35"/>
     <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="A3:B4"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.98425196850393704" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId1"/>
@@ -2956,6 +2933,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006C74908D0E41BC42B08475F207DECDB0" ma:contentTypeVersion="4" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="7ff4eb30befe92038f61cc88f83a9bdf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f03e471c-ab1a-40bf-97c2-e6235ed84487" xmlns:ns3="d4b41af6-0436-4b30-b696-76389f800ad6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eab88dbce57d31e27afcffa02087225c" ns2:_="" ns3:_="">
     <xsd:import namespace="f03e471c-ab1a-40bf-97c2-e6235ed84487"/>
@@ -3120,36 +3112,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF7E5A17-B36E-4A7E-91FA-E9B0508F33B4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A04E226-1BF2-4161-ABEA-CBC9A4C31228}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f03e471c-ab1a-40bf-97c2-e6235ed84487"/>
-    <ds:schemaRef ds:uri="d4b41af6-0436-4b30-b696-76389f800ad6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3171,9 +3137,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A04E226-1BF2-4161-ABEA-CBC9A4C31228}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF7E5A17-B36E-4A7E-91FA-E9B0508F33B4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f03e471c-ab1a-40bf-97c2-e6235ed84487"/>
+    <ds:schemaRef ds:uri="d4b41af6-0436-4b30-b696-76389f800ad6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>